--- a/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-07-30.xlsx
+++ b/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-07-30.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Minutes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues From Last Minutes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="1">Minutes!#REF!</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>FYP Project Meeting Minutes</t>
   </si>
@@ -137,6 +137,57 @@
   </si>
   <si>
     <t>The team discussed and ironed out issues about Naming Conventions.</t>
+  </si>
+  <si>
+    <t>Updates for everyone regarding the client's expectation regarding the GUI for workstation (only 2 actions: update cylinder status and send faulty cylinder).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Update cylinder flow: 
+a. Worker scans cylinder barcode. Remaining steps to be done for cylinder will be shown. (If this is the last step, only 1 step will be shown).
+b. Choose step to be done.
+c. Scan employee barcode. 
+- Send faulty cylinder: 
+a. Supervisor scans his employee barcode. 
+b. Enter password. 
+c. Choose 'Cylinder Forwarding' function. 
+d. Scan cylinder barcode. List of steps that has been done will be shown.
+e. Choose steps to return to. Choose type of error (can be from all departments). Confirm message will be shown.
+f. Click Confirm. Cylinder status will be changed. </t>
+  </si>
+  <si>
+    <t>Files from Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client sent installation files for current production system (3 programs, 3 databases)</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Architectural decision regarding our system</t>
+  </si>
+  <si>
+    <t>There will be a web client and a thick client.
+- Thick client: workflow management with drag and drop.
+- Web client: all other functions.</t>
+  </si>
+  <si>
+    <t>Design decision for design UCRRs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary classes: becomes .aspx classes. Each use case will have its own boundary classes
+- Controller classes: becomes .cs classes. Each use case should use the same set of controller classes from Rose file.
+- Entity classes: becomes .cs classes. Each use case should use the same set of entity classes.
+</t>
+  </si>
+  <si>
+    <t>Tasks to be done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Finish Analysis UCRRs
+2.  Write analysis-design transition document. Write system architecture document. Purchase barcode scanners. Propose to client when to capture start-time and end-time.
+3.  Write analysis-design transition document. Write system architecture document. Purchase barcode scanners. Propose to client when to capture start-time and end-time.
+</t>
   </si>
 </sst>
 </file>
@@ -634,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -865,12 +916,143 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="97.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="144.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>